--- a/Wheat/wheat_buyer.xlsx
+++ b/Wheat/wheat_buyer.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/Wheat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FB097-7488-BB4E-992E-B22C6051FB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A69BD2-3E5C-B843-A96A-6EA773E265EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="4200" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2060" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="wheat_buyer" sheetId="2" r:id="rId2"/>
-    <sheet name="statistic" sheetId="3" r:id="rId3"/>
+    <sheet name="buyer_ppn" sheetId="4" r:id="rId3"/>
+    <sheet name="statistic" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -10172,10 +10173,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFF95-356F-7F47-A32F-03A2E13F450D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Wheat/wheat_buyer.xlsx
+++ b/Wheat/wheat_buyer.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/Wheat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A69BD2-3E5C-B843-A96A-6EA773E265EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70851D8B-DC20-FE46-9F3B-ADEF076661E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2060" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="wheat_buyer" sheetId="2" r:id="rId2"/>
-    <sheet name="buyer_ppn" sheetId="4" r:id="rId3"/>
-    <sheet name="statistic" sheetId="3" r:id="rId4"/>
+    <sheet name="wheat_buyer" sheetId="2" r:id="rId1"/>
+    <sheet name="statistic" sheetId="3" r:id="rId2"/>
+    <sheet name="manu_record" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2204,19 +2203,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H305"/>
   <sheetViews>
@@ -10172,22 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DFF95-356F-7F47-A32F-03A2E13F450D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
@@ -11282,4 +11253,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BE0CC9-A3EB-C643-8C8E-CA36E9BDCDF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>